--- a/failrate_result.xlsx
+++ b/failrate_result.xlsx
@@ -573,10 +573,10 @@
         <v>2000</v>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>2100</v>
       </c>
       <c r="C8" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -613,16 +613,16 @@
         <v>2200</v>
       </c>
       <c r="C9" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -633,16 +633,16 @@
         <v>2300</v>
       </c>
       <c r="C10" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -653,16 +653,16 @@
         <v>2400</v>
       </c>
       <c r="C11" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -673,16 +673,16 @@
         <v>2500</v>
       </c>
       <c r="C12" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -693,16 +693,16 @@
         <v>2600</v>
       </c>
       <c r="C13" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -713,16 +713,16 @@
         <v>2700</v>
       </c>
       <c r="C14" t="n">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>0.785</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -733,16 +733,16 @@
         <v>2800</v>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0.665</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -753,16 +753,16 @@
         <v>2900</v>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>0.715</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -773,16 +773,16 @@
         <v>3000</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -893,16 +893,16 @@
         <v>4500</v>
       </c>
       <c r="C23" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -913,16 +913,16 @@
         <v>4600</v>
       </c>
       <c r="C24" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -933,16 +933,16 @@
         <v>4700</v>
       </c>
       <c r="C25" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -953,16 +953,16 @@
         <v>4800</v>
       </c>
       <c r="C26" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -973,16 +973,16 @@
         <v>4900</v>
       </c>
       <c r="C27" t="n">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -993,16 +993,16 @@
         <v>5000</v>
       </c>
       <c r="C28" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1013,16 +1013,16 @@
         <v>5100</v>
       </c>
       <c r="C29" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1033,16 +1033,16 @@
         <v>5200</v>
       </c>
       <c r="C30" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1053,16 +1053,16 @@
         <v>5300</v>
       </c>
       <c r="C31" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1073,16 +1073,16 @@
         <v>5400</v>
       </c>
       <c r="C32" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1093,16 +1093,16 @@
         <v>5500</v>
       </c>
       <c r="C33" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1113,16 +1113,16 @@
         <v>5600</v>
       </c>
       <c r="C34" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1133,16 +1133,16 @@
         <v>5700</v>
       </c>
       <c r="C35" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1153,16 +1153,16 @@
         <v>5800</v>
       </c>
       <c r="C36" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1173,16 +1173,16 @@
         <v>5900</v>
       </c>
       <c r="C37" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>0.715</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1193,16 +1193,16 @@
         <v>6000</v>
       </c>
       <c r="C38" t="n">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>0.735</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1413,16 +1413,16 @@
         <v>6500</v>
       </c>
       <c r="C49" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1433,16 +1433,16 @@
         <v>6600</v>
       </c>
       <c r="C50" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1453,10 +1453,10 @@
         <v>6700</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1473,10 +1473,10 @@
         <v>6800</v>
       </c>
       <c r="C52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>6900</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1513,16 +1513,16 @@
         <v>7000</v>
       </c>
       <c r="C54" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1533,16 +1533,16 @@
         <v>7100</v>
       </c>
       <c r="C55" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1553,16 +1553,16 @@
         <v>7200</v>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E56" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1573,16 +1573,16 @@
         <v>7300</v>
       </c>
       <c r="C57" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1593,16 +1593,16 @@
         <v>7400</v>
       </c>
       <c r="C58" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1613,16 +1613,16 @@
         <v>7500</v>
       </c>
       <c r="C59" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1633,16 +1633,16 @@
         <v>7600</v>
       </c>
       <c r="C60" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1653,16 +1653,16 @@
         <v>7700</v>
       </c>
       <c r="C61" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1673,16 +1673,16 @@
         <v>7800</v>
       </c>
       <c r="C62" t="n">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1693,16 +1693,16 @@
         <v>7900</v>
       </c>
       <c r="C63" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1713,16 +1713,16 @@
         <v>8000</v>
       </c>
       <c r="C64" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1733,16 +1733,16 @@
         <v>8100</v>
       </c>
       <c r="C65" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1753,16 +1753,16 @@
         <v>8200</v>
       </c>
       <c r="C66" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1773,16 +1773,16 @@
         <v>8300</v>
       </c>
       <c r="C67" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1793,16 +1793,16 @@
         <v>8400</v>
       </c>
       <c r="C68" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1813,16 +1813,16 @@
         <v>8500</v>
       </c>
       <c r="C69" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1833,10 +1833,10 @@
         <v>8500</v>
       </c>
       <c r="C70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -1853,10 +1853,10 @@
         <v>8600</v>
       </c>
       <c r="C71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -1873,10 +1873,10 @@
         <v>8700</v>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>8800</v>
       </c>
       <c r="C73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>8900</v>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -1933,10 +1933,10 @@
         <v>9000</v>
       </c>
       <c r="C75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -1953,16 +1953,16 @@
         <v>9100</v>
       </c>
       <c r="C76" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1973,10 +1973,10 @@
         <v>9200</v>
       </c>
       <c r="C77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         <v>9300</v>
       </c>
       <c r="C78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2013,10 +2013,10 @@
         <v>9400</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -2033,16 +2033,16 @@
         <v>9500</v>
       </c>
       <c r="C80" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E80" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2053,16 +2053,16 @@
         <v>9600</v>
       </c>
       <c r="C81" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2073,16 +2073,16 @@
         <v>9700</v>
       </c>
       <c r="C82" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2093,16 +2093,16 @@
         <v>9800</v>
       </c>
       <c r="C83" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2113,16 +2113,16 @@
         <v>9900</v>
       </c>
       <c r="C84" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E84" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2133,16 +2133,16 @@
         <v>10000</v>
       </c>
       <c r="C85" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2153,16 +2153,16 @@
         <v>10100</v>
       </c>
       <c r="C86" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2173,16 +2173,16 @@
         <v>10200</v>
       </c>
       <c r="C87" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2193,16 +2193,16 @@
         <v>10300</v>
       </c>
       <c r="C88" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2213,16 +2213,16 @@
         <v>10400</v>
       </c>
       <c r="C89" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E89" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2233,16 +2233,16 @@
         <v>10500</v>
       </c>
       <c r="C90" t="n">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E90" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2253,16 +2253,16 @@
         <v>10600</v>
       </c>
       <c r="C91" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2273,16 +2273,16 @@
         <v>10700</v>
       </c>
       <c r="C92" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2293,16 +2293,16 @@
         <v>10800</v>
       </c>
       <c r="C93" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2313,16 +2313,16 @@
         <v>10900</v>
       </c>
       <c r="C94" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2333,16 +2333,16 @@
         <v>11000</v>
       </c>
       <c r="C95" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2353,16 +2353,16 @@
         <v>11100</v>
       </c>
       <c r="C96" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D96" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2373,16 +2373,16 @@
         <v>11200</v>
       </c>
       <c r="C97" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2393,16 +2393,16 @@
         <v>11300</v>
       </c>
       <c r="C98" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D98" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E98" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2413,16 +2413,16 @@
         <v>11400</v>
       </c>
       <c r="C99" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E99" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2433,16 +2433,16 @@
         <v>11500</v>
       </c>
       <c r="C100" t="n">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8149999999999999</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1850000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2453,16 +2453,16 @@
         <v>11600</v>
       </c>
       <c r="C101" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E101" t="n">
-        <v>0.765</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2473,16 +2473,16 @@
         <v>11700</v>
       </c>
       <c r="C102" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D102" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" t="n">
-        <v>0.805</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2493,16 +2493,16 @@
         <v>11800</v>
       </c>
       <c r="C103" t="n">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D103" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E103" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2513,16 +2513,16 @@
         <v>11900</v>
       </c>
       <c r="C104" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D104" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E104" t="n">
-        <v>0.765</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2533,16 +2533,16 @@
         <v>12000</v>
       </c>
       <c r="C105" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D105" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6850000000000001</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3149999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2553,10 +2553,10 @@
         <v>11000</v>
       </c>
       <c r="C106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -2573,10 +2573,10 @@
         <v>11100</v>
       </c>
       <c r="C107" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D107" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -2593,10 +2593,10 @@
         <v>11200</v>
       </c>
       <c r="C108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -2613,10 +2613,10 @@
         <v>11300</v>
       </c>
       <c r="C109" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D109" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         <v>11400</v>
       </c>
       <c r="C110" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D110" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -2653,10 +2653,10 @@
         <v>11500</v>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D111" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -2673,10 +2673,10 @@
         <v>11600</v>
       </c>
       <c r="C112" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D112" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -2693,10 +2693,10 @@
         <v>11700</v>
       </c>
       <c r="C113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         <v>11800</v>
       </c>
       <c r="C114" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D114" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -2733,10 +2733,10 @@
         <v>11900</v>
       </c>
       <c r="C115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -2753,10 +2753,10 @@
         <v>12000</v>
       </c>
       <c r="C116" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D116" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -2773,10 +2773,10 @@
         <v>12100</v>
       </c>
       <c r="C117" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D117" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -2793,16 +2793,16 @@
         <v>12200</v>
       </c>
       <c r="C118" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D118" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E118" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2813,16 +2813,16 @@
         <v>12300</v>
       </c>
       <c r="C119" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D119" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E119" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2833,16 +2833,16 @@
         <v>12400</v>
       </c>
       <c r="C120" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D120" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E120" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2853,16 +2853,16 @@
         <v>12500</v>
       </c>
       <c r="C121" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D121" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E121" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2873,16 +2873,16 @@
         <v>12600</v>
       </c>
       <c r="C122" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E122" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2893,16 +2893,16 @@
         <v>12700</v>
       </c>
       <c r="C123" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D123" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E123" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2913,16 +2913,16 @@
         <v>12800</v>
       </c>
       <c r="C124" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D124" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E124" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2933,16 +2933,16 @@
         <v>12900</v>
       </c>
       <c r="C125" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D125" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E125" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2953,16 +2953,16 @@
         <v>13000</v>
       </c>
       <c r="C126" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D126" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2973,16 +2973,16 @@
         <v>13100</v>
       </c>
       <c r="C127" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E127" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2993,16 +2993,16 @@
         <v>13200</v>
       </c>
       <c r="C128" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D128" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E128" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3013,16 +3013,16 @@
         <v>13300</v>
       </c>
       <c r="C129" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D129" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E129" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3033,16 +3033,16 @@
         <v>13400</v>
       </c>
       <c r="C130" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D130" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3053,16 +3053,16 @@
         <v>13500</v>
       </c>
       <c r="C131" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D131" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E131" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3073,16 +3073,16 @@
         <v>13600</v>
       </c>
       <c r="C132" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D132" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E132" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3093,16 +3093,16 @@
         <v>13700</v>
       </c>
       <c r="C133" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D133" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E133" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3113,16 +3113,16 @@
         <v>13800</v>
       </c>
       <c r="C134" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D134" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3133,16 +3133,16 @@
         <v>13900</v>
       </c>
       <c r="C135" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D135" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E135" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3153,16 +3153,16 @@
         <v>14000</v>
       </c>
       <c r="C136" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D136" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E136" t="n">
-        <v>0.885</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3173,16 +3173,16 @@
         <v>14100</v>
       </c>
       <c r="C137" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E137" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3193,16 +3193,16 @@
         <v>14200</v>
       </c>
       <c r="C138" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D138" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E138" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3213,16 +3213,16 @@
         <v>14300</v>
       </c>
       <c r="C139" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D139" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E139" t="n">
-        <v>0.885</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3233,16 +3233,16 @@
         <v>14400</v>
       </c>
       <c r="C140" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D140" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E140" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3253,16 +3253,16 @@
         <v>14500</v>
       </c>
       <c r="C141" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3273,16 +3273,16 @@
         <v>14600</v>
       </c>
       <c r="C142" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D142" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E142" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3293,16 +3293,16 @@
         <v>14700</v>
       </c>
       <c r="C143" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D143" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E143" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3313,16 +3313,16 @@
         <v>14800</v>
       </c>
       <c r="C144" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="D144" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E144" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3333,16 +3333,16 @@
         <v>14900</v>
       </c>
       <c r="C145" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D145" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E145" t="n">
-        <v>0.835</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3353,16 +3353,16 @@
         <v>15000</v>
       </c>
       <c r="C146" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D146" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E146" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3373,16 +3373,16 @@
         <v>15100</v>
       </c>
       <c r="C147" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D147" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E147" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3393,16 +3393,16 @@
         <v>15200</v>
       </c>
       <c r="C148" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D148" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E148" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3413,16 +3413,16 @@
         <v>15300</v>
       </c>
       <c r="C149" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D149" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3433,16 +3433,16 @@
         <v>15400</v>
       </c>
       <c r="C150" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D150" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E150" t="n">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3453,16 +3453,16 @@
         <v>15500</v>
       </c>
       <c r="C151" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D151" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E151" t="n">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3473,16 +3473,16 @@
         <v>15600</v>
       </c>
       <c r="C152" t="n">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D152" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E152" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3493,16 +3493,16 @@
         <v>15700</v>
       </c>
       <c r="C153" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D153" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6850000000000001</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.3149999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3513,16 +3513,16 @@
         <v>15800</v>
       </c>
       <c r="C154" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D154" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6850000000000001</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3149999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3533,16 +3533,16 @@
         <v>15900</v>
       </c>
       <c r="C155" t="n">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D155" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E155" t="n">
-        <v>0.705</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3553,16 +3553,16 @@
         <v>16000</v>
       </c>
       <c r="C156" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D156" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E156" t="n">
-        <v>0.635</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3633,16 +3633,16 @@
         <v>13800</v>
       </c>
       <c r="C160" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D160" t="n">
         <v>100</v>
       </c>
       <c r="E160" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3673,10 +3673,10 @@
         <v>14000</v>
       </c>
       <c r="C162" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D162" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -3693,10 +3693,10 @@
         <v>14100</v>
       </c>
       <c r="C163" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D163" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -3713,10 +3713,10 @@
         <v>14200</v>
       </c>
       <c r="C164" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D164" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -3733,16 +3733,16 @@
         <v>14300</v>
       </c>
       <c r="C165" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D165" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E165" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3753,10 +3753,10 @@
         <v>14400</v>
       </c>
       <c r="C166" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D166" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -3773,16 +3773,16 @@
         <v>14500</v>
       </c>
       <c r="C167" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D167" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E167" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3793,10 +3793,10 @@
         <v>14600</v>
       </c>
       <c r="C168" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D168" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -3813,16 +3813,16 @@
         <v>14700</v>
       </c>
       <c r="C169" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D169" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E169" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3833,16 +3833,16 @@
         <v>14800</v>
       </c>
       <c r="C170" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D170" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E170" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3853,16 +3853,16 @@
         <v>14900</v>
       </c>
       <c r="C171" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D171" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E171" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3873,10 +3873,10 @@
         <v>15000</v>
       </c>
       <c r="C172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -3893,16 +3893,16 @@
         <v>15100</v>
       </c>
       <c r="C173" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D173" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E173" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3913,16 +3913,16 @@
         <v>15200</v>
       </c>
       <c r="C174" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D174" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E174" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3933,16 +3933,16 @@
         <v>15300</v>
       </c>
       <c r="C175" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D175" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E175" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3953,16 +3953,16 @@
         <v>15400</v>
       </c>
       <c r="C176" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D176" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E176" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3973,16 +3973,16 @@
         <v>15500</v>
       </c>
       <c r="C177" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D177" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E177" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3993,16 +3993,16 @@
         <v>15600</v>
       </c>
       <c r="C178" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D178" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E178" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4013,16 +4013,16 @@
         <v>15700</v>
       </c>
       <c r="C179" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D179" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E179" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4033,16 +4033,16 @@
         <v>15800</v>
       </c>
       <c r="C180" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D180" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E180" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4053,16 +4053,16 @@
         <v>15900</v>
       </c>
       <c r="C181" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D181" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E181" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4073,16 +4073,16 @@
         <v>16000</v>
       </c>
       <c r="C182" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D182" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E182" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4093,16 +4093,16 @@
         <v>16100</v>
       </c>
       <c r="C183" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D183" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E183" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4113,16 +4113,16 @@
         <v>16200</v>
       </c>
       <c r="C184" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D184" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E184" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4133,16 +4133,16 @@
         <v>16300</v>
       </c>
       <c r="C185" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D185" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E185" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4153,16 +4153,16 @@
         <v>16400</v>
       </c>
       <c r="C186" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D186" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E186" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4173,16 +4173,16 @@
         <v>16500</v>
       </c>
       <c r="C187" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D187" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E187" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4193,16 +4193,16 @@
         <v>16600</v>
       </c>
       <c r="C188" t="n">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="D188" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E188" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4213,16 +4213,16 @@
         <v>16700</v>
       </c>
       <c r="C189" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D189" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E189" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4233,16 +4233,16 @@
         <v>16800</v>
       </c>
       <c r="C190" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D190" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E190" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4253,16 +4253,16 @@
         <v>16900</v>
       </c>
       <c r="C191" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="D191" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E191" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4273,16 +4273,16 @@
         <v>17000</v>
       </c>
       <c r="C192" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D192" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E192" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4293,16 +4293,16 @@
         <v>17100</v>
       </c>
       <c r="C193" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D193" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E193" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4313,16 +4313,16 @@
         <v>17200</v>
       </c>
       <c r="C194" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D194" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E194" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4333,16 +4333,16 @@
         <v>17300</v>
       </c>
       <c r="C195" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D195" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E195" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4353,16 +4353,16 @@
         <v>17400</v>
       </c>
       <c r="C196" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D196" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E196" t="n">
-        <v>0.885</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4373,16 +4373,16 @@
         <v>17500</v>
       </c>
       <c r="C197" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D197" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E197" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4393,16 +4393,16 @@
         <v>17600</v>
       </c>
       <c r="C198" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D198" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E198" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.08499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4413,16 +4413,16 @@
         <v>17700</v>
       </c>
       <c r="C199" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D199" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E199" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4433,16 +4433,16 @@
         <v>17800</v>
       </c>
       <c r="C200" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D200" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E200" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4453,16 +4453,16 @@
         <v>17900</v>
       </c>
       <c r="C201" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D201" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E201" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4473,16 +4473,16 @@
         <v>18000</v>
       </c>
       <c r="C202" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D202" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E202" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4493,16 +4493,16 @@
         <v>18100</v>
       </c>
       <c r="C203" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D203" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E203" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4513,16 +4513,16 @@
         <v>18200</v>
       </c>
       <c r="C204" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D204" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E204" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4533,16 +4533,16 @@
         <v>18300</v>
       </c>
       <c r="C205" t="n">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="D205" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E205" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4553,16 +4553,16 @@
         <v>18400</v>
       </c>
       <c r="C206" t="n">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D206" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E206" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4573,16 +4573,16 @@
         <v>18500</v>
       </c>
       <c r="C207" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D207" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E207" t="n">
-        <v>0.765</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4593,16 +4593,16 @@
         <v>18600</v>
       </c>
       <c r="C208" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D208" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E208" t="n">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4613,16 +4613,16 @@
         <v>18700</v>
       </c>
       <c r="C209" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D209" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E209" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4633,16 +4633,16 @@
         <v>18800</v>
       </c>
       <c r="C210" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D210" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E210" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4653,16 +4653,16 @@
         <v>18900</v>
       </c>
       <c r="C211" t="n">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D211" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E211" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4673,16 +4673,16 @@
         <v>19000</v>
       </c>
       <c r="C212" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D212" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E212" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4873,16 +4873,16 @@
         <v>16900</v>
       </c>
       <c r="C222" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D222" t="n">
         <v>100</v>
       </c>
       <c r="E222" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4893,16 +4893,16 @@
         <v>17000</v>
       </c>
       <c r="C223" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D223" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E223" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4913,10 +4913,10 @@
         <v>17100</v>
       </c>
       <c r="C224" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D224" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -4933,16 +4933,16 @@
         <v>17200</v>
       </c>
       <c r="C225" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D225" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E225" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4953,10 +4953,10 @@
         <v>17300</v>
       </c>
       <c r="C226" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D226" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -4973,16 +4973,16 @@
         <v>17400</v>
       </c>
       <c r="C227" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D227" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E227" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4993,10 +4993,10 @@
         <v>17500</v>
       </c>
       <c r="C228" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D228" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5013,10 +5013,10 @@
         <v>17600</v>
       </c>
       <c r="C229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -5033,10 +5033,10 @@
         <v>17700</v>
       </c>
       <c r="C230" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D230" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5053,16 +5053,16 @@
         <v>17800</v>
       </c>
       <c r="C231" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D231" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E231" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5073,16 +5073,16 @@
         <v>17900</v>
       </c>
       <c r="C232" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D232" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E232" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5093,16 +5093,16 @@
         <v>18000</v>
       </c>
       <c r="C233" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D233" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E233" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5113,10 +5113,10 @@
         <v>18100</v>
       </c>
       <c r="C234" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D234" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -5133,16 +5133,16 @@
         <v>18200</v>
       </c>
       <c r="C235" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D235" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E235" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5153,16 +5153,16 @@
         <v>18300</v>
       </c>
       <c r="C236" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D236" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E236" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5173,16 +5173,16 @@
         <v>18400</v>
       </c>
       <c r="C237" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D237" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E237" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5193,16 +5193,16 @@
         <v>18500</v>
       </c>
       <c r="C238" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D238" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E238" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5213,16 +5213,16 @@
         <v>18600</v>
       </c>
       <c r="C239" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D239" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E239" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5233,16 +5233,16 @@
         <v>18700</v>
       </c>
       <c r="C240" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D240" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E240" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5253,16 +5253,16 @@
         <v>18800</v>
       </c>
       <c r="C241" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D241" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E241" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5273,16 +5273,16 @@
         <v>18900</v>
       </c>
       <c r="C242" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D242" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E242" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5293,16 +5293,16 @@
         <v>19000</v>
       </c>
       <c r="C243" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D243" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E243" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5313,16 +5313,16 @@
         <v>19100</v>
       </c>
       <c r="C244" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D244" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E244" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -5333,16 +5333,16 @@
         <v>19200</v>
       </c>
       <c r="C245" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D245" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E245" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5353,16 +5353,16 @@
         <v>19300</v>
       </c>
       <c r="C246" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D246" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E246" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5373,16 +5373,16 @@
         <v>19400</v>
       </c>
       <c r="C247" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D247" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E247" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -5393,16 +5393,16 @@
         <v>19500</v>
       </c>
       <c r="C248" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D248" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E248" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5413,16 +5413,16 @@
         <v>19600</v>
       </c>
       <c r="C249" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D249" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E249" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5433,16 +5433,16 @@
         <v>19700</v>
       </c>
       <c r="C250" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="D250" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E250" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5453,16 +5453,16 @@
         <v>19800</v>
       </c>
       <c r="C251" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D251" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E251" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5473,16 +5473,16 @@
         <v>19900</v>
       </c>
       <c r="C252" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D252" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E252" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5493,16 +5493,16 @@
         <v>20000</v>
       </c>
       <c r="C253" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D253" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E253" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5513,16 +5513,16 @@
         <v>20100</v>
       </c>
       <c r="C254" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D254" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E254" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5533,16 +5533,16 @@
         <v>20200</v>
       </c>
       <c r="C255" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="D255" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E255" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -5553,16 +5553,16 @@
         <v>20300</v>
       </c>
       <c r="C256" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D256" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E256" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5573,16 +5573,16 @@
         <v>20400</v>
       </c>
       <c r="C257" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D257" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E257" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5593,16 +5593,16 @@
         <v>20500</v>
       </c>
       <c r="C258" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E258" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5613,16 +5613,16 @@
         <v>20600</v>
       </c>
       <c r="C259" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D259" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E259" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5633,16 +5633,16 @@
         <v>20700</v>
       </c>
       <c r="C260" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D260" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E260" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -5653,16 +5653,16 @@
         <v>20800</v>
       </c>
       <c r="C261" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D261" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E261" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F261" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -5673,16 +5673,16 @@
         <v>20900</v>
       </c>
       <c r="C262" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D262" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E262" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5693,16 +5693,16 @@
         <v>21000</v>
       </c>
       <c r="C263" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D263" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E263" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5713,16 +5713,16 @@
         <v>21100</v>
       </c>
       <c r="C264" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D264" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E264" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F264" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5733,16 +5733,16 @@
         <v>21200</v>
       </c>
       <c r="C265" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D265" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F265" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5753,16 +5753,16 @@
         <v>21300</v>
       </c>
       <c r="C266" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D266" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E266" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F266" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -5773,16 +5773,16 @@
         <v>21400</v>
       </c>
       <c r="C267" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D267" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E267" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5793,16 +5793,16 @@
         <v>21500</v>
       </c>
       <c r="C268" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D268" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E268" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -5813,16 +5813,16 @@
         <v>21600</v>
       </c>
       <c r="C269" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D269" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E269" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5833,16 +5833,16 @@
         <v>21700</v>
       </c>
       <c r="C270" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D270" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E270" t="n">
-        <v>0.865</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5853,16 +5853,16 @@
         <v>21800</v>
       </c>
       <c r="C271" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D271" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E271" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5873,16 +5873,16 @@
         <v>21900</v>
       </c>
       <c r="C272" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D272" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E272" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5893,16 +5893,16 @@
         <v>22000</v>
       </c>
       <c r="C273" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D273" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E273" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5913,10 +5913,10 @@
         <v>20000</v>
       </c>
       <c r="C274" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D274" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -5933,10 +5933,10 @@
         <v>20100</v>
       </c>
       <c r="C275" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D275" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -5953,10 +5953,10 @@
         <v>20200</v>
       </c>
       <c r="C276" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D276" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -5973,10 +5973,10 @@
         <v>20300</v>
       </c>
       <c r="C277" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D277" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -5993,10 +5993,10 @@
         <v>20400</v>
       </c>
       <c r="C278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -6013,16 +6013,16 @@
         <v>20500</v>
       </c>
       <c r="C279" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D279" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E279" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6033,10 +6033,10 @@
         <v>20600</v>
       </c>
       <c r="C280" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D280" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -6053,16 +6053,16 @@
         <v>20700</v>
       </c>
       <c r="C281" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D281" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E281" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F281" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6073,10 +6073,10 @@
         <v>20800</v>
       </c>
       <c r="C282" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D282" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6093,16 +6093,16 @@
         <v>20900</v>
       </c>
       <c r="C283" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D283" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E283" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -6113,16 +6113,16 @@
         <v>21000</v>
       </c>
       <c r="C284" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D284" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E284" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6133,16 +6133,16 @@
         <v>21100</v>
       </c>
       <c r="C285" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D285" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E285" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6153,16 +6153,16 @@
         <v>21200</v>
       </c>
       <c r="C286" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D286" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E286" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6173,10 +6173,10 @@
         <v>21300</v>
       </c>
       <c r="C287" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D287" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -6193,16 +6193,16 @@
         <v>21400</v>
       </c>
       <c r="C288" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D288" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E288" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6213,10 +6213,10 @@
         <v>21500</v>
       </c>
       <c r="C289" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D289" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -6233,16 +6233,16 @@
         <v>21600</v>
       </c>
       <c r="C290" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D290" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E290" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F290" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6253,16 +6253,16 @@
         <v>21700</v>
       </c>
       <c r="C291" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D291" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E291" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -6273,16 +6273,16 @@
         <v>21800</v>
       </c>
       <c r="C292" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D292" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E292" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F292" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6293,16 +6293,16 @@
         <v>21900</v>
       </c>
       <c r="C293" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D293" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E293" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6313,16 +6313,16 @@
         <v>22000</v>
       </c>
       <c r="C294" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D294" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E294" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F294" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6333,16 +6333,16 @@
         <v>22100</v>
       </c>
       <c r="C295" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D295" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E295" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F295" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6353,16 +6353,16 @@
         <v>22200</v>
       </c>
       <c r="C296" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D296" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E296" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -6373,16 +6373,16 @@
         <v>22300</v>
       </c>
       <c r="C297" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D297" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E297" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6393,16 +6393,16 @@
         <v>22400</v>
       </c>
       <c r="C298" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D298" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E298" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -6413,16 +6413,16 @@
         <v>22500</v>
       </c>
       <c r="C299" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D299" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E299" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F299" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6433,16 +6433,16 @@
         <v>22600</v>
       </c>
       <c r="C300" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D300" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E300" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F300" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6453,16 +6453,16 @@
         <v>22700</v>
       </c>
       <c r="C301" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D301" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E301" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6473,10 +6473,10 @@
         <v>22800</v>
       </c>
       <c r="C302" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D302" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -6493,16 +6493,16 @@
         <v>22900</v>
       </c>
       <c r="C303" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D303" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E303" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6513,16 +6513,16 @@
         <v>23000</v>
       </c>
       <c r="C304" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D304" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E304" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F304" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -6533,16 +6533,16 @@
         <v>23100</v>
       </c>
       <c r="C305" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D305" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E305" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F305" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -6553,16 +6553,16 @@
         <v>23200</v>
       </c>
       <c r="C306" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D306" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E306" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F306" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6573,16 +6573,16 @@
         <v>23300</v>
       </c>
       <c r="C307" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D307" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E307" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F307" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6593,16 +6593,16 @@
         <v>23400</v>
       </c>
       <c r="C308" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D308" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E308" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F308" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6613,16 +6613,16 @@
         <v>23500</v>
       </c>
       <c r="C309" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D309" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E309" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6633,16 +6633,16 @@
         <v>23600</v>
       </c>
       <c r="C310" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D310" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E310" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F310" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -6653,16 +6653,16 @@
         <v>23700</v>
       </c>
       <c r="C311" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D311" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E311" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F311" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6673,16 +6673,16 @@
         <v>23800</v>
       </c>
       <c r="C312" t="n">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D312" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E312" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F312" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -6693,16 +6693,16 @@
         <v>23900</v>
       </c>
       <c r="C313" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D313" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E313" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="F313" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6713,16 +6713,16 @@
         <v>24000</v>
       </c>
       <c r="C314" t="n">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D314" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E314" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F314" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6733,16 +6733,16 @@
         <v>24100</v>
       </c>
       <c r="C315" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D315" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E315" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F315" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6753,16 +6753,16 @@
         <v>24200</v>
       </c>
       <c r="C316" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D316" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E316" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6773,16 +6773,16 @@
         <v>24300</v>
       </c>
       <c r="C317" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D317" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E317" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -6793,16 +6793,16 @@
         <v>24400</v>
       </c>
       <c r="C318" t="n">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D318" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E318" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6813,16 +6813,16 @@
         <v>24500</v>
       </c>
       <c r="C319" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D319" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E319" t="n">
-        <v>0.865</v>
+        <v>1</v>
       </c>
       <c r="F319" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6833,16 +6833,16 @@
         <v>24600</v>
       </c>
       <c r="C320" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D320" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E320" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F320" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6853,16 +6853,16 @@
         <v>24700</v>
       </c>
       <c r="C321" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D321" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E321" t="n">
-        <v>0.885</v>
+        <v>1</v>
       </c>
       <c r="F321" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6873,16 +6873,16 @@
         <v>24800</v>
       </c>
       <c r="C322" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D322" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E322" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6893,16 +6893,16 @@
         <v>24900</v>
       </c>
       <c r="C323" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D323" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E323" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F323" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6913,16 +6913,16 @@
         <v>25000</v>
       </c>
       <c r="C324" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="D324" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E324" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F324" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6933,16 +6933,16 @@
         <v>25100</v>
       </c>
       <c r="C325" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D325" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E325" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F325" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -6953,16 +6953,16 @@
         <v>25200</v>
       </c>
       <c r="C326" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D326" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E326" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F326" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -6973,16 +6973,16 @@
         <v>25300</v>
       </c>
       <c r="C327" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D327" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E327" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F327" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -6993,16 +6993,16 @@
         <v>25400</v>
       </c>
       <c r="C328" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D328" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E328" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F328" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7013,16 +7013,16 @@
         <v>25500</v>
       </c>
       <c r="C329" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D329" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E329" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F329" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7033,16 +7033,16 @@
         <v>25600</v>
       </c>
       <c r="C330" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D330" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E330" t="n">
-        <v>0.805</v>
+        <v>1</v>
       </c>
       <c r="F330" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7053,16 +7053,16 @@
         <v>25700</v>
       </c>
       <c r="C331" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D331" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E331" t="n">
-        <v>0.835</v>
+        <v>1</v>
       </c>
       <c r="F331" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7073,16 +7073,16 @@
         <v>25800</v>
       </c>
       <c r="C332" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D332" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E332" t="n">
-        <v>0.835</v>
+        <v>1</v>
       </c>
       <c r="F332" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7093,16 +7093,16 @@
         <v>25900</v>
       </c>
       <c r="C333" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D333" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E333" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F333" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7113,16 +7113,16 @@
         <v>26000</v>
       </c>
       <c r="C334" t="n">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="D334" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E334" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="F334" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7133,16 +7133,16 @@
         <v>26100</v>
       </c>
       <c r="C335" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D335" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E335" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F335" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -7153,16 +7153,16 @@
         <v>26200</v>
       </c>
       <c r="C336" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D336" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E336" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F336" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -7173,16 +7173,16 @@
         <v>26300</v>
       </c>
       <c r="C337" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D337" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E337" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7193,16 +7193,16 @@
         <v>26400</v>
       </c>
       <c r="C338" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D338" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E338" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F338" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7213,16 +7213,16 @@
         <v>26500</v>
       </c>
       <c r="C339" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D339" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E339" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F339" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7233,16 +7233,16 @@
         <v>26600</v>
       </c>
       <c r="C340" t="n">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D340" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E340" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7253,16 +7253,16 @@
         <v>26700</v>
       </c>
       <c r="C341" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D341" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E341" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F341" t="n">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7273,16 +7273,16 @@
         <v>26800</v>
       </c>
       <c r="C342" t="n">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D342" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E342" t="n">
-        <v>0.845</v>
+        <v>1</v>
       </c>
       <c r="F342" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7293,16 +7293,16 @@
         <v>26900</v>
       </c>
       <c r="C343" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D343" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E343" t="n">
-        <v>0.755</v>
+        <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7313,16 +7313,16 @@
         <v>27000</v>
       </c>
       <c r="C344" t="n">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="D344" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E344" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F344" t="n">
-        <v>0.1850000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="345">
@@ -7333,16 +7333,16 @@
         <v>27100</v>
       </c>
       <c r="C345" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D345" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E345" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -7353,16 +7353,16 @@
         <v>27200</v>
       </c>
       <c r="C346" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D346" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E346" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="F346" t="n">
-        <v>0.27</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="347">
@@ -7373,16 +7373,16 @@
         <v>27300</v>
       </c>
       <c r="C347" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D347" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E347" t="n">
-        <v>0.665</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7393,16 +7393,16 @@
         <v>27400</v>
       </c>
       <c r="C348" t="n">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D348" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E348" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7413,16 +7413,16 @@
         <v>27500</v>
       </c>
       <c r="C349" t="n">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D349" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E349" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="F349" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7433,16 +7433,16 @@
         <v>27600</v>
       </c>
       <c r="C350" t="n">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D350" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E350" t="n">
-        <v>0.735</v>
+        <v>0.99</v>
       </c>
       <c r="F350" t="n">
-        <v>0.265</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="351">
@@ -7453,16 +7453,16 @@
         <v>27700</v>
       </c>
       <c r="C351" t="n">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D351" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E351" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="F351" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -7473,16 +7473,16 @@
         <v>27800</v>
       </c>
       <c r="C352" t="n">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D352" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E352" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -7493,16 +7493,16 @@
         <v>27900</v>
       </c>
       <c r="C353" t="n">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D353" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E353" t="n">
-        <v>0.715</v>
+        <v>0.99</v>
       </c>
       <c r="F353" t="n">
-        <v>0.285</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="354">
@@ -7513,16 +7513,16 @@
         <v>28000</v>
       </c>
       <c r="C354" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D354" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E354" t="n">
-        <v>0.725</v>
+        <v>0.98</v>
       </c>
       <c r="F354" t="n">
-        <v>0.275</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="355">
@@ -7533,16 +7533,16 @@
         <v>24000</v>
       </c>
       <c r="C355" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D355" t="n">
         <v>100</v>
       </c>
       <c r="E355" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F355" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7713,16 +7713,16 @@
         <v>24900</v>
       </c>
       <c r="C364" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D364" t="n">
         <v>100</v>
       </c>
       <c r="E364" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F364" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -7733,16 +7733,16 @@
         <v>25000</v>
       </c>
       <c r="C365" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E365" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F365" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -7753,16 +7753,16 @@
         <v>25100</v>
       </c>
       <c r="C366" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D366" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E366" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F366" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -7773,16 +7773,16 @@
         <v>25200</v>
       </c>
       <c r="C367" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D367" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E367" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F367" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7793,10 +7793,10 @@
         <v>25300</v>
       </c>
       <c r="C368" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D368" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E368" t="n">
         <v>1</v>
@@ -7813,16 +7813,16 @@
         <v>25400</v>
       </c>
       <c r="C369" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D369" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E369" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F369" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -7833,10 +7833,10 @@
         <v>25500</v>
       </c>
       <c r="C370" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D370" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
@@ -7853,16 +7853,16 @@
         <v>25600</v>
       </c>
       <c r="C371" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D371" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E371" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7873,16 +7873,16 @@
         <v>25700</v>
       </c>
       <c r="C372" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D372" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E372" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F372" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7893,16 +7893,16 @@
         <v>25800</v>
       </c>
       <c r="C373" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D373" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E373" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -7913,16 +7913,16 @@
         <v>25900</v>
       </c>
       <c r="C374" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E374" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F374" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7933,16 +7933,16 @@
         <v>26000</v>
       </c>
       <c r="C375" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D375" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E375" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7953,16 +7953,16 @@
         <v>26100</v>
       </c>
       <c r="C376" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D376" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E376" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -7973,16 +7973,16 @@
         <v>26200</v>
       </c>
       <c r="C377" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D377" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E377" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F377" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7993,16 +7993,16 @@
         <v>26300</v>
       </c>
       <c r="C378" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D378" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E378" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F378" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8013,16 +8013,16 @@
         <v>26400</v>
       </c>
       <c r="C379" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D379" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E379" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -8033,16 +8033,16 @@
         <v>26500</v>
       </c>
       <c r="C380" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D380" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E380" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F380" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8053,16 +8053,16 @@
         <v>26600</v>
       </c>
       <c r="C381" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D381" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E381" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8073,16 +8073,16 @@
         <v>26700</v>
       </c>
       <c r="C382" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D382" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E382" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F382" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8093,16 +8093,16 @@
         <v>26800</v>
       </c>
       <c r="C383" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D383" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E383" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8113,16 +8113,16 @@
         <v>26900</v>
       </c>
       <c r="C384" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D384" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E384" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F384" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8133,16 +8133,16 @@
         <v>27000</v>
       </c>
       <c r="C385" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D385" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E385" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -8153,16 +8153,16 @@
         <v>27100</v>
       </c>
       <c r="C386" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D386" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E386" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F386" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -8173,16 +8173,16 @@
         <v>27200</v>
       </c>
       <c r="C387" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D387" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E387" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="F387" t="n">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -8193,16 +8193,16 @@
         <v>27300</v>
       </c>
       <c r="C388" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D388" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E388" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F388" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -8213,16 +8213,16 @@
         <v>27400</v>
       </c>
       <c r="C389" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D389" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E389" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F389" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8233,16 +8233,16 @@
         <v>27500</v>
       </c>
       <c r="C390" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D390" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E390" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F390" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8253,16 +8253,16 @@
         <v>27600</v>
       </c>
       <c r="C391" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D391" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E391" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8273,16 +8273,16 @@
         <v>27700</v>
       </c>
       <c r="C392" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D392" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E392" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8293,16 +8293,16 @@
         <v>27800</v>
       </c>
       <c r="C393" t="n">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D393" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E393" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -8313,16 +8313,16 @@
         <v>27900</v>
       </c>
       <c r="C394" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D394" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E394" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="F394" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8333,16 +8333,16 @@
         <v>28000</v>
       </c>
       <c r="C395" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D395" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E395" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F395" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8353,16 +8353,16 @@
         <v>28100</v>
       </c>
       <c r="C396" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D396" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E396" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F396" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8373,16 +8373,16 @@
         <v>28200</v>
       </c>
       <c r="C397" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D397" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E397" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F397" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -8393,16 +8393,16 @@
         <v>28300</v>
       </c>
       <c r="C398" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D398" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E398" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F398" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8413,16 +8413,16 @@
         <v>28400</v>
       </c>
       <c r="C399" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D399" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E399" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F399" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -8433,16 +8433,16 @@
         <v>28500</v>
       </c>
       <c r="C400" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D400" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E400" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F400" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8453,16 +8453,16 @@
         <v>28600</v>
       </c>
       <c r="C401" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D401" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E401" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F401" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8473,16 +8473,16 @@
         <v>28700</v>
       </c>
       <c r="C402" t="n">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D402" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E402" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F402" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -8493,16 +8493,16 @@
         <v>28800</v>
       </c>
       <c r="C403" t="n">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D403" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E403" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F403" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="404">
@@ -8513,16 +8513,16 @@
         <v>28900</v>
       </c>
       <c r="C404" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D404" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E404" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F404" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -8533,16 +8533,16 @@
         <v>29000</v>
       </c>
       <c r="C405" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D405" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E405" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F405" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8553,16 +8553,16 @@
         <v>29100</v>
       </c>
       <c r="C406" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D406" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E406" t="n">
-        <v>0.925</v>
+        <v>0.99</v>
       </c>
       <c r="F406" t="n">
-        <v>0.07499999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="407">
@@ -8573,16 +8573,16 @@
         <v>29200</v>
       </c>
       <c r="C407" t="n">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="D407" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E407" t="n">
-        <v>0.875</v>
+        <v>0.99</v>
       </c>
       <c r="F407" t="n">
-        <v>0.125</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="408">
@@ -8593,16 +8593,16 @@
         <v>29300</v>
       </c>
       <c r="C408" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D408" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E408" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F408" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -8613,16 +8613,16 @@
         <v>29400</v>
       </c>
       <c r="C409" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D409" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E409" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8633,16 +8633,16 @@
         <v>29500</v>
       </c>
       <c r="C410" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D410" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E410" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8653,16 +8653,16 @@
         <v>29600</v>
       </c>
       <c r="C411" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D411" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E411" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F411" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -8673,16 +8673,16 @@
         <v>29700</v>
       </c>
       <c r="C412" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D412" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E412" t="n">
-        <v>0.905</v>
+        <v>1</v>
       </c>
       <c r="F412" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -8693,16 +8693,16 @@
         <v>29800</v>
       </c>
       <c r="C413" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D413" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E413" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F413" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8713,16 +8713,16 @@
         <v>29900</v>
       </c>
       <c r="C414" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D414" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E414" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F414" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -8733,16 +8733,16 @@
         <v>30000</v>
       </c>
       <c r="C415" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D415" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E415" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F415" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8753,16 +8753,16 @@
         <v>30100</v>
       </c>
       <c r="C416" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D416" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E416" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F416" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -8773,16 +8773,16 @@
         <v>30200</v>
       </c>
       <c r="C417" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D417" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E417" t="n">
-        <v>0.895</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8793,16 +8793,16 @@
         <v>30300</v>
       </c>
       <c r="C418" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D418" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E418" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -8813,16 +8813,16 @@
         <v>30400</v>
       </c>
       <c r="C419" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D419" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E419" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="F419" t="n">
-        <v>0.08499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8833,16 +8833,16 @@
         <v>30500</v>
       </c>
       <c r="C420" t="n">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="D420" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E420" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="F420" t="n">
-        <v>0.13</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="421">
@@ -8853,16 +8853,16 @@
         <v>30600</v>
       </c>
       <c r="C421" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D421" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E421" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -8873,16 +8873,16 @@
         <v>30700</v>
       </c>
       <c r="C422" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D422" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E422" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F422" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -8893,16 +8893,16 @@
         <v>30800</v>
       </c>
       <c r="C423" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D423" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E423" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F423" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8913,16 +8913,16 @@
         <v>30900</v>
       </c>
       <c r="C424" t="n">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="D424" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E424" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F424" t="n">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="425">
@@ -8933,16 +8933,16 @@
         <v>31000</v>
       </c>
       <c r="C425" t="n">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D425" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E425" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F425" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -8953,16 +8953,16 @@
         <v>31100</v>
       </c>
       <c r="C426" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="D426" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E426" t="n">
-        <v>0.855</v>
+        <v>1</v>
       </c>
       <c r="F426" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -8973,16 +8973,16 @@
         <v>31200</v>
       </c>
       <c r="C427" t="n">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D427" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E427" t="n">
-        <v>0.775</v>
+        <v>0.99</v>
       </c>
       <c r="F427" t="n">
-        <v>0.225</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="428">
@@ -8993,16 +8993,16 @@
         <v>31300</v>
       </c>
       <c r="C428" t="n">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="D428" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E428" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="F428" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -9013,16 +9013,16 @@
         <v>31400</v>
       </c>
       <c r="C429" t="n">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="D429" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E429" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F429" t="n">
-        <v>0.1850000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="430">
@@ -9033,16 +9033,16 @@
         <v>31500</v>
       </c>
       <c r="C430" t="n">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="D430" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E430" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -9053,16 +9053,16 @@
         <v>31600</v>
       </c>
       <c r="C431" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D431" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E431" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F431" t="n">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -9073,16 +9073,16 @@
         <v>31700</v>
       </c>
       <c r="C432" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D432" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E432" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F432" t="n">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
     </row>
     <row r="433">
@@ -9093,16 +9093,16 @@
         <v>31800</v>
       </c>
       <c r="C433" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D433" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E433" t="n">
-        <v>0.775</v>
+        <v>0.98</v>
       </c>
       <c r="F433" t="n">
-        <v>0.225</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="434">
@@ -9113,16 +9113,16 @@
         <v>31900</v>
       </c>
       <c r="C434" t="n">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="D434" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E434" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="F434" t="n">
-        <v>0.13</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="435">
@@ -9133,16 +9133,16 @@
         <v>32000</v>
       </c>
       <c r="C435" t="n">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D435" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E435" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="F435" t="n">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
   </sheetData>
